--- a/result.xlsx
+++ b/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ZD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>lenet-net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +128,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.2"/>
@@ -419,272 +434,302 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>832</v>
-      </c>
-      <c r="C2">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="E2">
-        <v>832</v>
-      </c>
-      <c r="F2" s="1">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H2">
-        <v>832</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>0.97</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E3">
-        <v>812</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
+        <v>832</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>0.98499999999999999</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H3">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>680</v>
+        <v>812</v>
       </c>
       <c r="C4">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.623</v>
+        <v>0.97</v>
       </c>
       <c r="E4">
-        <v>680</v>
+        <v>812</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H4">
-        <v>680</v>
+        <v>812</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>0.85899999999999999</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>680</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>0.623</v>
+      </c>
+      <c r="E5">
+        <v>680</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>820</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E5">
-        <v>820</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>0.97</v>
-      </c>
       <c r="H5">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J5">
-        <v>0.96099999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>0.98799999999999999</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E6">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.97</v>
       </c>
       <c r="H6">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J6">
-        <v>0.995</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0.879</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="E7">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>0.95499999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="H7">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0.98199999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>796</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>0.879</v>
+      </c>
+      <c r="E8">
+        <v>796</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H8">
+        <v>796</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>680</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>32</v>
-      </c>
-      <c r="D8">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E8">
-        <v>680</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H8">
-        <v>680</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>5432</v>
-      </c>
-      <c r="C9">
-        <v>512</v>
       </c>
       <c r="D9">
         <v>0.95299999999999996</v>
       </c>
       <c r="E9">
+        <v>680</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>680</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>5432</v>
       </c>
-      <c r="F9">
+      <c r="C10">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E10">
+        <v>5432</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>0.98199999999999998</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>5432</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>158</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0.97099999999999997</v>
       </c>
     </row>
